--- a/!OLD_MANSURA/Python/HISTORY/Daily/2022-12-06.xlsx
+++ b/!OLD_MANSURA/Python/HISTORY/Daily/2022-12-06.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,17 +509,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>$73.55000000000001</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$14.71</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$58.84000000000001</t>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
@@ -530,13 +530,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>foreandr $14.71</t>
-        </is>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -581,206 +574,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>%20.0</t>
+          <t>%100.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Valen 2.64</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Tyriek 2.64</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Tyrece 2.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>%20.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Valen 2.64</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Tyeesha 2.64</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Travers 2.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>19</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>%20.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Valen 2.64</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Tya 2.64</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Terresa 2.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>26</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>%20.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Valen 2.64</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tong 2.64</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Terral 2.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>%20.0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Valen 2.64</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Timithy 2.64</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Tedd 2.64</t>
+          <t>Admin 0.0</t>
         </is>
       </c>
     </row>
